--- a/P3TOME.TOUCHES_ONLY.xlsx
+++ b/P3TOME.TOUCHES_ONLY.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajf/Documents/GitHub/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708C4EEA-F00E-1F48-ACD7-585715F837D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F5796950-0A4C-3D4B-9EE6-0532C8AB98B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="960" windowWidth="27300" windowHeight="16540" xr2:uid="{2C695936-C05E-D94F-B8DC-223AFE61142B}"/>
+    <workbookView xWindow="-2280" yWindow="-18900" windowWidth="27300" windowHeight="16540" activeTab="1" xr2:uid="{2C695936-C05E-D94F-B8DC-223AFE61142B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="P3TOME.TOUCHES_ONLY" sheetId="1" r:id="rId1"/>
+    <sheet name="VISUAL_TABLE" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,17 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="22">
   <si>
     <t>ProductID</t>
   </si>
   <si>
-    <t>FLISHDB</t>
-  </si>
-  <si>
-    <t>FLIVPBHDB</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -57,9 +52,6 @@
     <t>Scan</t>
   </si>
   <si>
-    <t>Add CTSD</t>
-  </si>
-  <si>
     <t>Recon</t>
   </si>
   <si>
@@ -76,13 +68,46 @@
   </si>
   <si>
     <t>LabelAndBag</t>
+  </si>
+  <si>
+    <t>Freq</t>
+  </si>
+  <si>
+    <t>AddCTSD</t>
+  </si>
+  <si>
+    <t>SYR-H</t>
+  </si>
+  <si>
+    <t>IV-H</t>
+  </si>
+  <si>
+    <t>Label+Bag</t>
+  </si>
+  <si>
+    <t>SYRINGE-HAZARDOUS</t>
+  </si>
+  <si>
+    <t>IV-HAZARDOUS</t>
+  </si>
+  <si>
+    <t>ScanIn</t>
+  </si>
+  <si>
+    <t>Product Type</t>
+  </si>
+  <si>
+    <t>TOUCH COUNT</t>
+  </si>
+  <si>
+    <t>PREPARATION - ORDER OF TOUCHES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -97,6 +122,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -106,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -114,11 +177,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thick">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -126,11 +204,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -440,303 +561,701 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70329AB1-54E6-0248-814A-E357B58121F4}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="10.83203125" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29C12D9-20AF-DA4D-816B-C471904FE450}">
+  <dimension ref="B1:L12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="24" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="2:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="6" customFormat="1" ht="28" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="9">
+        <f>COUNTIF(C4:K4,"Yes")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" s="6" customFormat="1" ht="28" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="9">
+        <f t="shared" ref="L5:L11" si="0">COUNTIF(C5:K5,"Yes")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" s="6" customFormat="1" ht="28" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" s="6" customFormat="1" ht="28" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" s="6" customFormat="1" ht="28" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" s="6" customFormat="1" ht="28" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" s="6" customFormat="1" ht="28" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" s="6" customFormat="1" ht="28" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:L2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C4:K11">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",C4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>